--- a/Unity.xlsx
+++ b/Unity.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="468">
   <si>
     <t>CONFIGURACIÓN</t>
   </si>
@@ -6225,6 +6225,18 @@
   </si>
   <si>
     <t>4. Se genera el arbol de animaciones y adicionalmente dentro de cada estado se puede crear un Blentree para controlar las progreciones entre una animacion y otra</t>
+  </si>
+  <si>
+    <t>PREFABS EN TILEMAPS</t>
+  </si>
+  <si>
+    <t>1. En la ventana Projects: cliclderecho&gt;Create&gt;Brushes&gt;PrefabBrush.</t>
+  </si>
+  <si>
+    <t>2. Darle de tamaño 1 (Si se dan mas pintara aleatoriamente entres los prefabs asignados), y seleccionar el prefab a pintar.</t>
+  </si>
+  <si>
+    <t>3. En la ventana Tile plaette en la parte de abajo elegir la brocha creada y pintar con el pincel en la tilemap deseada.</t>
   </si>
 </sst>
 </file>
@@ -27641,6 +27653,8 @@
     <mergeCell ref="O584:U584"/>
     <mergeCell ref="O585:U585"/>
     <mergeCell ref="O586:U586"/>
+    <mergeCell ref="O518:U518"/>
+    <mergeCell ref="O519:U519"/>
     <mergeCell ref="AJ20:AP20"/>
     <mergeCell ref="AJ26:AP26"/>
     <mergeCell ref="AJ27:AP27"/>
@@ -27665,8 +27679,6 @@
     <mergeCell ref="O353:U355"/>
     <mergeCell ref="O356:U358"/>
     <mergeCell ref="O359:U361"/>
-    <mergeCell ref="O518:U518"/>
-    <mergeCell ref="O519:U519"/>
     <mergeCell ref="O520:U523"/>
     <mergeCell ref="O524:U524"/>
     <mergeCell ref="O500:U516"/>
@@ -27715,6 +27727,7 @@
     <mergeCell ref="O370:U372"/>
     <mergeCell ref="O380:U380"/>
     <mergeCell ref="O381:U381"/>
+    <mergeCell ref="O376:U379"/>
     <mergeCell ref="O368:U368"/>
     <mergeCell ref="O369:U369"/>
     <mergeCell ref="A142:G142"/>
@@ -27737,6 +27750,8 @@
     <mergeCell ref="H244:N245"/>
     <mergeCell ref="A207:G207"/>
     <mergeCell ref="A208:G208"/>
+    <mergeCell ref="A256:G256"/>
+    <mergeCell ref="A134:G135"/>
     <mergeCell ref="O397:U397"/>
     <mergeCell ref="V62:AB71"/>
     <mergeCell ref="V48:AB61"/>
@@ -27760,7 +27775,8 @@
     <mergeCell ref="O227:U235"/>
     <mergeCell ref="O62:U70"/>
     <mergeCell ref="O373:U375"/>
-    <mergeCell ref="O376:U379"/>
+    <mergeCell ref="A255:G255"/>
+    <mergeCell ref="A229:G229"/>
     <mergeCell ref="A132:G133"/>
     <mergeCell ref="A284:G284"/>
     <mergeCell ref="A285:G285"/>
@@ -27768,7 +27784,6 @@
     <mergeCell ref="A287:G287"/>
     <mergeCell ref="A288:G288"/>
     <mergeCell ref="A209:G209"/>
-    <mergeCell ref="O157:U163"/>
     <mergeCell ref="A232:G232"/>
     <mergeCell ref="A247:G247"/>
     <mergeCell ref="A227:G227"/>
@@ -27784,14 +27799,6 @@
     <mergeCell ref="A136:G139"/>
     <mergeCell ref="A140:G141"/>
     <mergeCell ref="A201:G204"/>
-    <mergeCell ref="A134:G135"/>
-    <mergeCell ref="A256:G256"/>
-    <mergeCell ref="A243:G243"/>
-    <mergeCell ref="A282:G282"/>
-    <mergeCell ref="A237:G237"/>
-    <mergeCell ref="A238:G238"/>
-    <mergeCell ref="A283:G283"/>
-    <mergeCell ref="A239:G239"/>
     <mergeCell ref="A2:G3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A10:G10"/>
@@ -27801,16 +27808,6 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A50:G51"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A255:G255"/>
-    <mergeCell ref="A229:G229"/>
     <mergeCell ref="A230:G230"/>
     <mergeCell ref="A233:G233"/>
     <mergeCell ref="A217:G217"/>
@@ -27820,6 +27817,10 @@
     <mergeCell ref="A235:G235"/>
     <mergeCell ref="A254:G254"/>
     <mergeCell ref="A223:G223"/>
+    <mergeCell ref="A237:G237"/>
+    <mergeCell ref="A238:G238"/>
+    <mergeCell ref="A239:G239"/>
+    <mergeCell ref="A243:G243"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="AJ2:AP3"/>
@@ -27881,6 +27882,14 @@
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A48:G48"/>
     <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A50:G51"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A56:G56"/>
     <mergeCell ref="A71:G71"/>
     <mergeCell ref="A95:G96"/>
     <mergeCell ref="A97:G98"/>
@@ -27939,6 +27948,8 @@
     <mergeCell ref="A269:G269"/>
     <mergeCell ref="A276:G276"/>
     <mergeCell ref="A279:G279"/>
+    <mergeCell ref="A282:G282"/>
+    <mergeCell ref="A283:G283"/>
     <mergeCell ref="H476:N477"/>
     <mergeCell ref="A376:G427"/>
     <mergeCell ref="H478:N493"/>
@@ -28048,6 +28059,7 @@
     <mergeCell ref="H172:N180"/>
     <mergeCell ref="H182:N182"/>
     <mergeCell ref="H156:N158"/>
+    <mergeCell ref="O157:U163"/>
     <mergeCell ref="O402:U416"/>
     <mergeCell ref="O419:U422"/>
     <mergeCell ref="O417:U417"/>
@@ -30211,8 +30223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31327,7 +31339,7 @@
       <c r="F112" s="44"/>
       <c r="G112" s="45"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="188"/>
       <c r="B113" s="99"/>
       <c r="C113" s="99"/>
@@ -31336,17 +31348,21 @@
       <c r="F113" s="99"/>
       <c r="G113" s="99"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="188"/>
-      <c r="B114" s="99"/>
-      <c r="C114" s="99"/>
-      <c r="D114" s="99"/>
-      <c r="E114" s="99"/>
-      <c r="F114" s="99"/>
-      <c r="G114" s="99"/>
+    <row r="114" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="27"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="307"/>
+      <c r="A115" s="307" t="s">
+        <v>465</v>
+      </c>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
@@ -31354,41 +31370,45 @@
       <c r="F115" s="14"/>
       <c r="G115" s="15"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="307"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="15"/>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="192" t="s">
+        <v>466</v>
+      </c>
+      <c r="B116" s="180"/>
+      <c r="C116" s="180"/>
+      <c r="D116" s="180"/>
+      <c r="E116" s="180"/>
+      <c r="F116" s="180"/>
+      <c r="G116" s="181"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="188"/>
-      <c r="B117" s="99"/>
-      <c r="C117" s="99"/>
-      <c r="D117" s="99"/>
-      <c r="E117" s="99"/>
-      <c r="F117" s="99"/>
-      <c r="G117" s="99"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="100"/>
-      <c r="B118" s="100"/>
-      <c r="C118" s="100"/>
-      <c r="D118" s="100"/>
-      <c r="E118" s="100"/>
-      <c r="F118" s="100"/>
-      <c r="G118" s="100"/>
+      <c r="A117" s="193"/>
+      <c r="B117" s="182"/>
+      <c r="C117" s="182"/>
+      <c r="D117" s="182"/>
+      <c r="E117" s="182"/>
+      <c r="F117" s="182"/>
+      <c r="G117" s="183"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="192" t="s">
+        <v>467</v>
+      </c>
+      <c r="B118" s="180"/>
+      <c r="C118" s="180"/>
+      <c r="D118" s="180"/>
+      <c r="E118" s="180"/>
+      <c r="F118" s="180"/>
+      <c r="G118" s="181"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="188"/>
-      <c r="B119" s="99"/>
-      <c r="C119" s="99"/>
-      <c r="D119" s="99"/>
-      <c r="E119" s="99"/>
-      <c r="F119" s="99"/>
-      <c r="G119" s="99"/>
+      <c r="A119" s="193"/>
+      <c r="B119" s="182"/>
+      <c r="C119" s="182"/>
+      <c r="D119" s="182"/>
+      <c r="E119" s="182"/>
+      <c r="F119" s="182"/>
+      <c r="G119" s="183"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="188"/>
@@ -31805,8 +31825,7 @@
       <c r="G165" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="A161:G161"/>
+  <mergeCells count="108">
     <mergeCell ref="A162:G162"/>
     <mergeCell ref="A163:G163"/>
     <mergeCell ref="A164:G164"/>
@@ -31816,8 +31835,6 @@
     <mergeCell ref="A158:G158"/>
     <mergeCell ref="A159:G159"/>
     <mergeCell ref="A160:G160"/>
-    <mergeCell ref="A151:G151"/>
-    <mergeCell ref="A152:G152"/>
     <mergeCell ref="A153:G153"/>
     <mergeCell ref="A154:G154"/>
     <mergeCell ref="A155:G155"/>
@@ -31826,9 +31843,7 @@
     <mergeCell ref="A148:G148"/>
     <mergeCell ref="A149:G149"/>
     <mergeCell ref="A150:G150"/>
-    <mergeCell ref="A141:G141"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="A161:G161"/>
     <mergeCell ref="A144:G144"/>
     <mergeCell ref="A145:G145"/>
     <mergeCell ref="A136:G136"/>
@@ -31836,25 +31851,26 @@
     <mergeCell ref="A138:G138"/>
     <mergeCell ref="A139:G139"/>
     <mergeCell ref="A140:G140"/>
-    <mergeCell ref="A131:G131"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="A152:G152"/>
     <mergeCell ref="A135:G135"/>
     <mergeCell ref="A126:G126"/>
     <mergeCell ref="A127:G127"/>
     <mergeCell ref="A128:G128"/>
     <mergeCell ref="A129:G129"/>
     <mergeCell ref="A130:G130"/>
+    <mergeCell ref="A141:G141"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A143:G143"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A123:G123"/>
     <mergeCell ref="A124:G124"/>
     <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A119:G119"/>
     <mergeCell ref="A120:G120"/>
+    <mergeCell ref="A131:G131"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A134:G134"/>
     <mergeCell ref="A113:G113"/>
     <mergeCell ref="A114:G114"/>
     <mergeCell ref="A115:G115"/>
@@ -31868,6 +31884,8 @@
     <mergeCell ref="A98:G98"/>
     <mergeCell ref="A99:G99"/>
     <mergeCell ref="A100:G101"/>
+    <mergeCell ref="A116:G117"/>
+    <mergeCell ref="A118:G119"/>
     <mergeCell ref="A89:G89"/>
     <mergeCell ref="A86:G88"/>
     <mergeCell ref="A102:G102"/>
@@ -33438,8 +33456,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A161:G161"/>
-    <mergeCell ref="A162:G162"/>
     <mergeCell ref="A151:G151"/>
     <mergeCell ref="A144:G144"/>
     <mergeCell ref="A145:G145"/>
@@ -33457,6 +33473,8 @@
     <mergeCell ref="A156:G156"/>
     <mergeCell ref="A157:G157"/>
     <mergeCell ref="A158:G158"/>
+    <mergeCell ref="A161:G161"/>
+    <mergeCell ref="A162:G162"/>
     <mergeCell ref="A35:G57"/>
     <mergeCell ref="A58:G66"/>
     <mergeCell ref="A83:G105"/>
